--- a/NformTester/NformTester/Keywordscripts/500.30.10_ShowExpandedTopFrameAndBottomFrame.xlsx
+++ b/NformTester/NformTester/Keywordscripts/500.30.10_ShowExpandedTopFrameAndBottomFrame.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8061" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8071" uniqueCount="890">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4519,10 +4519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4722,7 +4722,7 @@
         <v>823</v>
       </c>
       <c r="B7" s="3">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -5102,10 +5102,10 @@
         <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="4"/>
@@ -5130,10 +5130,10 @@
         <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="4"/>
@@ -5152,17 +5152,15 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="9"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -5182,10 +5180,10 @@
         <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>868</v>
+        <v>32</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="4"/>
@@ -5206,10 +5204,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>869</v>
+        <v>33</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="4"/>
@@ -5230,10 +5228,10 @@
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>870</v>
+        <v>34</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="4"/>
@@ -5254,20 +5252,14 @@
         <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="J26" s="4">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -5284,20 +5276,14 @@
         <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -5314,38 +5300,44 @@
         <v>19</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14" ht="15">
+    <row r="29" spans="1:14">
       <c r="C29" s="4">
         <v>28</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="D29" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="J29" s="4">
+        <v>4</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -5362,14 +5354,20 @@
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>22</v>
+        <v>872</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -5386,37 +5384,37 @@
         <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>84</v>
+        <v>873</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" ht="15">
       <c r="C32" s="4">
         <v>31</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D32" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -5431,16 +5429,16 @@
         <v>838</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>499</v>
+        <v>22</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -5455,17 +5453,17 @@
         <v>838</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -5476,17 +5474,19 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+        <v>450</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -5501,23 +5501,17 @@
         <v>838</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>19</v>
+        <v>450</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>871</v>
+        <v>499</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="J36" s="4">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -5531,23 +5525,17 @@
         <v>838</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>19</v>
+        <v>450</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>872</v>
+        <v>17</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -5558,44 +5546,48 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="J38" s="4">
-        <v>0</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="14"/>
     </row>
-    <row r="39" spans="3:14" ht="15">
+    <row r="39" spans="3:14">
       <c r="C39" s="4">
         <v>38</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="4"/>
+      <c r="D39" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="J39" s="4">
+        <v>4</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -5612,14 +5604,20 @@
         <v>19</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>21</v>
+        <v>872</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -5636,32 +5634,34 @@
         <v>19</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>76</v>
+        <v>873</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="14"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" ht="15">
       <c r="C42" s="4">
         <v>41</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2</v>
-      </c>
+      <c r="D42" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -5706,7 +5706,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>2</v>
@@ -5752,20 +5752,14 @@
         <v>19</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="J46" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -5782,20 +5776,14 @@
         <v>19</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="J47" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -5806,26 +5794,18 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="J48" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -5842,7 +5822,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>7</v>
@@ -5872,7 +5852,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>7</v>
@@ -5902,14 +5882,20 @@
         <v>19</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="J51" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -5926,14 +5912,20 @@
         <v>19</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="J52" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -5950,29 +5942,41 @@
         <v>19</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="J53" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="14"/>
     </row>
-    <row r="54" spans="3:14" ht="15">
+    <row r="54" spans="3:14">
       <c r="C54" s="4">
         <v>53</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="D54" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="4"/>
@@ -5992,10 +5996,10 @@
         <v>19</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -6016,10 +6020,10 @@
         <v>19</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -6029,19 +6033,15 @@
       <c r="M56" s="4"/>
       <c r="N56" s="14"/>
     </row>
-    <row r="57" spans="3:14">
+    <row r="57" spans="3:14" ht="15">
       <c r="C57" s="4">
         <v>56</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F57" s="4">
-        <v>2</v>
-      </c>
+      <c r="D57" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -6062,10 +6062,10 @@
         <v>19</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>868</v>
+        <v>21</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -6086,10 +6086,10 @@
         <v>19</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>869</v>
+        <v>76</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -6104,37 +6104,41 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="4"/>
+      <c r="I60" s="9"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="14"/>
     </row>
-    <row r="61" spans="3:14" ht="15">
+    <row r="61" spans="3:14">
       <c r="C61" s="4">
         <v>60</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="D61" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H61" s="9"/>
-      <c r="I61" s="4"/>
+      <c r="I61" s="9"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -6152,13 +6156,13 @@
         <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>21</v>
+        <v>869</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="4"/>
+      <c r="I62" s="9"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -6176,10 +6180,10 @@
         <v>19</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>76</v>
+        <v>870</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="4"/>
@@ -6189,19 +6193,15 @@
       <c r="M63" s="4"/>
       <c r="N63" s="14"/>
     </row>
-    <row r="64" spans="3:14">
+    <row r="64" spans="3:14" ht="15">
       <c r="C64" s="4">
         <v>63</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F64" s="4">
-        <v>2</v>
-      </c>
+      <c r="D64" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="9"/>
       <c r="I64" s="4"/>
@@ -6246,7 +6246,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>2</v>
@@ -6292,20 +6292,14 @@
         <v>19</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="J68" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -6322,20 +6316,14 @@
         <v>19</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="J69" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -6346,26 +6334,18 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="J70" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -6382,7 +6362,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>7</v>
@@ -6412,7 +6392,7 @@
         <v>19</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>7</v>
@@ -6442,14 +6422,20 @@
         <v>19</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="J73" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
@@ -6466,14 +6452,20 @@
         <v>19</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H74" s="9"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="J74" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
@@ -6490,14 +6482,20 @@
         <v>19</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H75" s="9"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="J75" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -6514,10 +6512,10 @@
         <v>19</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>871</v>
+        <v>32</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="4"/>
@@ -6538,10 +6536,10 @@
         <v>19</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>872</v>
+        <v>33</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="4"/>
@@ -6549,6 +6547,7 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
+      <c r="N77" s="14"/>
     </row>
     <row r="78" spans="3:15">
       <c r="C78" s="4">
@@ -6561,10 +6560,10 @@
         <v>19</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>873</v>
+        <v>34</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="4"/>
@@ -6572,76 +6571,78 @@
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
+      <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="3:15" ht="15">
+    <row r="79" spans="3:15">
       <c r="C79" s="4">
         <v>78</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="D79" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H79" s="9"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
+      <c r="N79" s="14"/>
     </row>
     <row r="80" spans="3:15">
       <c r="C80" s="4">
         <v>79</v>
       </c>
-      <c r="D80" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>812</v>
-      </c>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18" t="s">
-        <v>879</v>
-      </c>
-      <c r="I80" s="18" t="s">
-        <v>880</v>
-      </c>
-      <c r="J80" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="19"/>
+      <c r="D80" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="9"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
       <c r="O80" s="20"/>
     </row>
     <row r="81" spans="3:15">
       <c r="C81" s="4">
         <v>80</v>
       </c>
-      <c r="D81" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>812</v>
-      </c>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18" t="s">
-        <v>881</v>
-      </c>
-      <c r="I81" s="18" t="s">
-        <v>880</v>
-      </c>
-      <c r="J81" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="19"/>
+      <c r="D81" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="9"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
       <c r="O81" s="20"/>
     </row>
     <row r="82" spans="3:15" ht="15">
@@ -6649,7 +6650,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="4"/>
@@ -6665,73 +6666,67 @@
       <c r="C83" s="4">
         <v>82</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
+      <c r="D83" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="J83" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="19"/>
     </row>
     <row r="84" spans="3:15">
       <c r="C84" s="4">
         <v>83</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="17" t="s">
         <v>837</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F84" s="4">
-        <v>2</v>
-      </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
+      <c r="E84" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="J84" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="19"/>
     </row>
-    <row r="85" spans="3:15">
+    <row r="85" spans="3:15" ht="15">
       <c r="C85" s="4">
         <v>84</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="J85" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="D85" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
@@ -6766,43 +6761,47 @@
         <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="J87" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F87" s="4">
+        <v>2</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
     </row>
-    <row r="88" spans="3:15" ht="15">
+    <row r="88" spans="3:15">
       <c r="C88" s="4">
         <v>87</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
+      <c r="D88" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="J88" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
@@ -6818,12 +6817,14 @@
         <v>19</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H89" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>883</v>
+      </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -6841,36 +6842,36 @@
         <v>19</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="J90" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="3:15">
+    <row r="91" spans="3:15" ht="15">
       <c r="C91" s="4">
         <v>90</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D91" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
       <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -6884,10 +6885,10 @@
         <v>838</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>496</v>
+        <v>22</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>2</v>
@@ -6907,16 +6908,16 @@
         <v>838</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -6927,17 +6928,19 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F94" s="4">
-        <v>2</v>
-      </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
+        <v>450</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -6951,15 +6954,16 @@
         <v>838</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>19</v>
+        <v>450</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>22</v>
+        <v>496</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H95" s="9"/>
+      <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -6973,73 +6977,83 @@
         <v>838</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>19</v>
+        <v>450</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H96" s="9"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
     </row>
-    <row r="97" spans="3:8">
+    <row r="97" spans="3:13">
       <c r="C97" s="4">
         <v>96</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>844</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F97" s="4">
+        <v>2</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
     </row>
-    <row r="98" spans="3:8" ht="14.25">
+    <row r="98" spans="3:13">
       <c r="C98" s="4">
         <v>97</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>849</v>
+        <v>19</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H98" s="15"/>
+      <c r="H98" s="9"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
     </row>
-    <row r="99" spans="3:8">
+    <row r="99" spans="3:13">
       <c r="C99" s="4">
         <v>98</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>640</v>
+        <v>838</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="3:8">
+    <row r="100" spans="3:13">
       <c r="C100" s="4">
         <v>99</v>
       </c>
@@ -7050,16 +7064,72 @@
         <v>849</v>
       </c>
       <c r="F100" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" ht="14.25">
+      <c r="C101" s="4">
         <v>100</v>
       </c>
-      <c r="G100" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H100" s="9"/>
+      <c r="D101" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="3:13">
+      <c r="C102" s="4">
+        <v>101</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" s="9"/>
+    </row>
+    <row r="103" spans="3:13">
+      <c r="C103" s="4">
+        <v>102</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N80:N81 N2:N76">
+  <conditionalFormatting sqref="N83:N84 N2:N79">
     <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7068,16 +7138,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F103">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G98:G100 G84:G85 G2:G82 G87:G96">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G101:G103 G87:G88 G90:G99 G2:G85">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89:D96 D62:D78 D30:D38 D55:D60 D80:D81 D83:D87 D40:D53 D3:D4 D9:D16 D18:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D92:D99 D65:D81 D33:D41 D58:D63 D83:D84 D86:D90 D43:D56 D3:D4 D9:D16 D18:D31">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E103">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
